--- a/biology/Zoologie/Cordonbleu_à_joues_rouges/Cordonbleu_à_joues_rouges.xlsx
+++ b/biology/Zoologie/Cordonbleu_à_joues_rouges/Cordonbleu_à_joues_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cordonbleu_%C3%A0_joues_rouges</t>
+          <t>Cordonbleu_à_joues_rouges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uraeginthus bengalus
 Le Cordonbleu à joues rouges (Uraeginthus bengalus) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cordonbleu_%C3%A0_joues_rouges</t>
+          <t>Cordonbleu_à_joues_rouges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 11,5 à 12 cm de longueur. Le mâle adulte a le dessus uniformément brun, les joues, la gorge, la poitrine, les flancs et les sous-caudales de couleur bleu pâle, les flancs, la queue bleu plus sombre et le ventre blanc cassé de brun à jaune. Il a une tache rouge sur chaque joue. Il a un cri tsee-tsee qui est un son familier en Afrique. Son chant est un wit-sit-diddley-diddley-ee-ee.
 La femelle est semblable au mâle mais plus terne et n'a pas les taches sur les joues. Les immatures sont comme les femelles, mais avec du bleu restreint au visage et à la gorge.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cordonbleu_%C3%A0_joues_rouges</t>
+          <t>Cordonbleu_à_joues_rouges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique sub-saharienne du Sénégal à l'Éthiopie, au Katanga et à la Zambie. Il a été introduit aux îles Hawaï.
 Il fréquente les prairies sèches, les zones cultivées, les savanes et les abords des habitations humaines.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cordonbleu_%C3%A0_joues_rouges</t>
+          <t>Cordonbleu_à_joues_rouges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau grégaire.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cordonbleu_%C3%A0_joues_rouges</t>
+          <t>Cordonbleu_à_joues_rouges</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit principalement de petites graines.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cordonbleu_%C3%A0_joues_rouges</t>
+          <t>Cordonbleu_à_joues_rouges</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid est un dôme en herbe avec une entrée latérale placé dans un arbre, un buisson ou un chaume dans lequel la femelle pond  4 à 5 œufs blancs.
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cordonbleu_%C3%A0_joues_rouges</t>
+          <t>Cordonbleu_à_joues_rouges</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 5 sous-espèces :
 Uraeginthus bengalus bengalus (Linnaeus) 1766 ;
